--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/35.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/35.xlsx
@@ -479,13 +479,13 @@
         <v>-7.098418609531138</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.49765068868268</v>
+        <v>-16.52531757854255</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.311402891650867</v>
+        <v>0.8823629356300074</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.533524958759847</v>
+        <v>-7.126617442482251</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.263036258070382</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.21522489356039</v>
+        <v>-17.1925692357391</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.447014164125353</v>
+        <v>0.6835221373457095</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.95870721895484</v>
+        <v>-7.291328083828615</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.430927799466708</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.17622275034179</v>
+        <v>-18.0542811410672</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.397380966412433</v>
+        <v>0.7755674696291173</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.05651669033434</v>
+        <v>-7.429647866107373</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.718247661602684</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.6543920669604</v>
+        <v>-18.39842322343621</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.158303641613425</v>
+        <v>1.059760549796016</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.004414544153628</v>
+        <v>-7.263485189721535</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.108687472528117</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.55954279830104</v>
+        <v>-19.2739367951496</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.344442800057478</v>
+        <v>0.9812479885202292</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.630077955374551</v>
+        <v>-6.858577641003639</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.627973686578446</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.24093346335671</v>
+        <v>-19.90943924175241</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.494476642789364</v>
+        <v>0.8628362422035492</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.63721101639338</v>
+        <v>-6.651841096629274</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.26851424206587</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.81824695022949</v>
+        <v>-20.37086370985184</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.507359175883685</v>
+        <v>0.9531606440698028</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.432087844285096</v>
+        <v>-6.457072841065115</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.032141672655602</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.39812227670054</v>
+        <v>-20.84961481828762</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.341308946655785</v>
+        <v>1.164399963768597</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.596192248779963</v>
+        <v>-6.461399612142335</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.903215666303249</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.0930359347501</v>
+        <v>-21.5166855822301</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.328343300444727</v>
+        <v>1.348343958129405</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.602401287500945</v>
+        <v>-6.34039669218619</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.862992545267867</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.40242442086786</v>
+        <v>-22.65534017054146</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.344271684817136</v>
+        <v>1.398187383137603</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.317509079352077</v>
+        <v>-6.07953395278821</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.891185073524286</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.04851156733754</v>
+        <v>-23.27763740959672</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.218555762241285</v>
+        <v>1.632453925179566</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.998662718512485</v>
+        <v>-5.668344030246327</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.959493276851182</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.06216891708248</v>
+        <v>-24.13375629106907</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8788871211555019</v>
+        <v>2.239169899349978</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.634602822167663</v>
+        <v>-5.409163109210565</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.050557599930023</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.84821366313134</v>
+        <v>-25.0494134981667</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.610842430670023</v>
+        <v>2.517559728365849</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.926840854071854</v>
+        <v>-4.617867569786648</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.13744830055583</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.6987590767754</v>
+        <v>-25.78502813838332</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1691157712373905</v>
+        <v>2.913271055167078</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.339680907369103</v>
+        <v>-4.092245552517754</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.207815571583813</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.36271309884021</v>
+        <v>-26.4972659922658</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02313464579030605</v>
+        <v>3.063060447555618</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.8958519749836967</v>
+        <v>-3.792715657809343</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.246599340559114</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.52571983035568</v>
+        <v>-27.55392460190869</v>
       </c>
       <c r="F17" t="n">
-        <v>0.108095807123554</v>
+        <v>3.323356062157036</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5603389897347916</v>
+        <v>-3.396295425012412</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.255656214527364</v>
       </c>
       <c r="E18" t="n">
-        <v>-29.15766063545593</v>
+        <v>-28.22027668184173</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2603150359249509</v>
+        <v>3.522700428148627</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4622117329089416</v>
+        <v>-3.372089952014316</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.236247712205446</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.95162068362232</v>
+        <v>-29.05679553478461</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6641030020703234</v>
+        <v>3.949368946431161</v>
       </c>
       <c r="G19" t="n">
-        <v>0.336994219625645</v>
+        <v>-2.85894468026979</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.202838469928308</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.75108330901742</v>
+        <v>-29.83789749489101</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9052337097534355</v>
+        <v>4.261111580293126</v>
       </c>
       <c r="G20" t="n">
-        <v>0.298591070686028</v>
+        <v>-2.866405304748702</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.165108243704386</v>
       </c>
       <c r="E21" t="n">
-        <v>-31.41252927055951</v>
+        <v>-30.50576516695279</v>
       </c>
       <c r="F21" t="n">
-        <v>1.346999481241003</v>
+        <v>4.66039677111407</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1745960785273311</v>
+        <v>-3.017558730053111</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.141025189550514</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.88535001366572</v>
+        <v>-30.94190124703311</v>
       </c>
       <c r="F22" t="n">
-        <v>1.565210524732018</v>
+        <v>4.820027734325709</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1077242426016685</v>
+        <v>-3.02146015753291</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.140728340036173</v>
       </c>
       <c r="E23" t="n">
-        <v>-32.33301681644166</v>
+        <v>-31.35046821739089</v>
       </c>
       <c r="F23" t="n">
-        <v>1.856370439684271</v>
+        <v>5.019782776894121</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0860463861537676</v>
+        <v>-3.058973507222748</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.176049987892565</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.84005082960254</v>
+        <v>-31.62653332364155</v>
       </c>
       <c r="F24" t="n">
-        <v>2.35913146084347</v>
+        <v>5.49696451412562</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02028924379376154</v>
+        <v>-3.086791956295494</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.251466871676092</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.91401905899553</v>
+        <v>-31.67075194624936</v>
       </c>
       <c r="F25" t="n">
-        <v>2.508358617442315</v>
+        <v>5.563181223131116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.153392455745521</v>
+        <v>-2.969382456386532</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.366508277166855</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.86868085381519</v>
+        <v>-31.60587971413226</v>
       </c>
       <c r="F26" t="n">
-        <v>2.404956122207063</v>
+        <v>5.352201020796269</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.128390344035989</v>
+        <v>-3.170682425124888</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.51793473239317</v>
       </c>
       <c r="E27" t="n">
-        <v>-32.91327837445519</v>
+        <v>-31.69888329176159</v>
       </c>
       <c r="F27" t="n">
-        <v>2.63002644233236</v>
+        <v>5.491928837052698</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1930031893812659</v>
+        <v>-2.885125312042119</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.692501131398576</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.53020757490837</v>
+        <v>-31.51056852526176</v>
       </c>
       <c r="F28" t="n">
-        <v>2.758338427554543</v>
+        <v>5.597022928663901</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1472716885560145</v>
+        <v>-3.204235679252525</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.878203509940378</v>
       </c>
       <c r="E29" t="n">
-        <v>-32.83799989122187</v>
+        <v>-31.56074929174377</v>
       </c>
       <c r="F29" t="n">
-        <v>2.540528282626615</v>
+        <v>5.273844907740223</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3436533163862541</v>
+        <v>-3.202529415855972</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.052570724679819</v>
       </c>
       <c r="E30" t="n">
-        <v>-32.73883616494023</v>
+        <v>-31.72068581788459</v>
       </c>
       <c r="F30" t="n">
-        <v>2.488215909150625</v>
+        <v>5.139221214652853</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7388659644870578</v>
+        <v>-3.438076877697067</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.198347467845176</v>
       </c>
       <c r="E31" t="n">
-        <v>-32.26639676436964</v>
+        <v>-31.32854346609621</v>
       </c>
       <c r="F31" t="n">
-        <v>2.386314339023517</v>
+        <v>5.041793085808972</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3162650999177966</v>
+        <v>-3.329927156794041</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.291824795618568</v>
       </c>
       <c r="E32" t="n">
-        <v>-32.1263609406806</v>
+        <v>-31.25057847358952</v>
       </c>
       <c r="F32" t="n">
-        <v>2.109092982648839</v>
+        <v>4.745304153371782</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7211628706219587</v>
+        <v>-3.621659085549723</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.318496547812923</v>
       </c>
       <c r="E33" t="n">
-        <v>-31.7358099606274</v>
+        <v>-30.87176111001692</v>
       </c>
       <c r="F33" t="n">
-        <v>2.324791076610259</v>
+        <v>4.85928157046017</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.5553619807442721</v>
+        <v>-3.445239272757097</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.264373001490394</v>
       </c>
       <c r="E34" t="n">
-        <v>-31.41265149573118</v>
+        <v>-30.62739387978791</v>
       </c>
       <c r="F34" t="n">
-        <v>1.899471924222993</v>
+        <v>4.592552022821891</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.6335518675668429</v>
+        <v>-3.467968265681385</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.128919731465265</v>
       </c>
       <c r="E35" t="n">
-        <v>-30.47982409651695</v>
+        <v>-29.93293245487354</v>
       </c>
       <c r="F35" t="n">
-        <v>1.953172775649187</v>
+        <v>4.590312857676844</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6604169603005405</v>
+        <v>-3.540623796730608</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.916280722800929</v>
       </c>
       <c r="E36" t="n">
-        <v>-30.46503240624109</v>
+        <v>-29.92282687767963</v>
       </c>
       <c r="F36" t="n">
-        <v>2.059088220414032</v>
+        <v>4.639848275252426</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.3237843924791118</v>
+        <v>-3.275375618173004</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.64195471109882</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.9104699128235</v>
+        <v>-29.46194997834928</v>
       </c>
       <c r="F37" t="n">
-        <v>1.930732234130047</v>
+        <v>4.533737270212904</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.07544728867416697</v>
+        <v>-3.081902949428579</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.325202701073222</v>
       </c>
       <c r="E38" t="n">
-        <v>-29.06676421978625</v>
+        <v>-28.81975448134567</v>
       </c>
       <c r="F38" t="n">
-        <v>1.6166966560475</v>
+        <v>4.267501512268184</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1924556206121714</v>
+        <v>-2.935853647293229</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.989490640504367</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.75425156734275</v>
+        <v>-28.41475648600074</v>
       </c>
       <c r="F39" t="n">
-        <v>1.519229415148683</v>
+        <v>4.246928571372205</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1801939913899488</v>
+        <v>-2.911222830697711</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.660575322491895</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.8639609723741</v>
+        <v>-27.85271870108363</v>
       </c>
       <c r="F40" t="n">
-        <v>1.679588840383494</v>
+        <v>4.251270009470026</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5657410729148615</v>
+        <v>-2.649211174686005</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.358753164382919</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.64883000320924</v>
+        <v>-27.64505324540455</v>
       </c>
       <c r="F41" t="n">
-        <v>1.647453398247261</v>
+        <v>4.081611693174343</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5242578496490883</v>
+        <v>-2.753567026260305</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.105546349239166</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.76628115061436</v>
+        <v>-26.94794442327175</v>
       </c>
       <c r="F42" t="n">
-        <v>1.217020344677203</v>
+        <v>3.801163592267502</v>
       </c>
       <c r="G42" t="n">
-        <v>0.553533222768175</v>
+        <v>-2.582818461433301</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.910315907872364</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.38216654810145</v>
+        <v>-26.64724850042558</v>
       </c>
       <c r="F43" t="n">
-        <v>1.334459178627367</v>
+        <v>3.868744334188867</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6083927688218276</v>
+        <v>-2.48015909524182</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.784826149037348</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.56379079964169</v>
+        <v>-25.99261536995254</v>
       </c>
       <c r="F44" t="n">
-        <v>1.346119460004959</v>
+        <v>3.847222925960707</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7164202645531803</v>
+        <v>-2.434735332441313</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.726750519063671</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.13186659897722</v>
+        <v>-25.53304383545566</v>
       </c>
       <c r="F45" t="n">
-        <v>1.425683157757133</v>
+        <v>3.893008475269366</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6796207098659115</v>
+        <v>-2.472928254085653</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.73712164768885</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.57025660216097</v>
+        <v>-25.02511024503127</v>
       </c>
       <c r="F46" t="n">
-        <v>1.473365641730154</v>
+        <v>3.900273539473601</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5273085899340432</v>
+        <v>-2.542987722488544</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.804032488516892</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.31287483565223</v>
+        <v>-24.8117979864209</v>
       </c>
       <c r="F47" t="n">
-        <v>1.509857188984807</v>
+        <v>4.011708672991194</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5364119207202388</v>
+        <v>-2.566489178497804</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.921294433696293</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.92259519548015</v>
+        <v>-24.49925844443963</v>
       </c>
       <c r="F48" t="n">
-        <v>1.253282108609111</v>
+        <v>3.787327702834132</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5222093557718509</v>
+        <v>-2.739833805971141</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.073487149945067</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.74604591494333</v>
+        <v>-23.59679177786893</v>
       </c>
       <c r="F49" t="n">
-        <v>1.491689639467351</v>
+        <v>4.033591867727505</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2997155422654185</v>
+        <v>-2.853165874153096</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.254739142456824</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.62555145170134</v>
+        <v>-23.36679333882179</v>
       </c>
       <c r="F50" t="n">
-        <v>1.508967389735029</v>
+        <v>4.015209201907905</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1306390177868988</v>
+        <v>-2.954338982257034</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.453211484920749</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.16811152419844</v>
+        <v>-22.88898580871132</v>
       </c>
       <c r="F51" t="n">
-        <v>1.393357044353091</v>
+        <v>3.961498572467977</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1078758018145428</v>
+        <v>-2.894605096357068</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.667212402415367</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.48501948475309</v>
+        <v>-22.26110043480717</v>
       </c>
       <c r="F52" t="n">
-        <v>1.666667195234237</v>
+        <v>4.104917588908927</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001637682596481017</v>
+        <v>-2.98017738354868</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.891946591309859</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.01671129498504</v>
+        <v>-21.82314319966893</v>
       </c>
       <c r="F53" t="n">
-        <v>1.672436223337197</v>
+        <v>4.238964379186001</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.111889945860151</v>
+        <v>-3.022594407126034</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.129289646426201</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.36585736682012</v>
+        <v>-21.32781346894744</v>
       </c>
       <c r="F54" t="n">
-        <v>1.964041037914339</v>
+        <v>4.35723434430354</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05417983939521596</v>
+        <v>-2.887462257324505</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.380520093837332</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.01007944810785</v>
+        <v>-21.07818566732963</v>
       </c>
       <c r="F55" t="n">
-        <v>1.740427641835383</v>
+        <v>4.21223128963771</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2993198021170694</v>
+        <v>-3.080211353052626</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.645982646421356</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.34173754237998</v>
+        <v>-20.49531826865603</v>
       </c>
       <c r="F56" t="n">
-        <v>1.910941534332776</v>
+        <v>4.251793133204786</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.5277586479736703</v>
+        <v>-3.339724726555339</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.926717939491324</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.92625996081581</v>
+        <v>-20.10250123392001</v>
       </c>
       <c r="F57" t="n">
-        <v>1.75409241602841</v>
+        <v>4.11765345179724</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.5857960484908177</v>
+        <v>-3.403355150928237</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.216914641337977</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.2204193724187</v>
+        <v>-19.67013213363066</v>
       </c>
       <c r="F58" t="n">
-        <v>1.67013350110288</v>
+        <v>4.04065159364333</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.02647646045393</v>
+        <v>-3.796162407650518</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.514449105047077</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.63819732265153</v>
+        <v>-19.26497035655568</v>
       </c>
       <c r="F59" t="n">
-        <v>1.77279286729436</v>
+        <v>4.174458822583925</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.7154378435808013</v>
+        <v>-3.663719211625792</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.808037234985634</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.1439529514545</v>
+        <v>-18.83662490891779</v>
       </c>
       <c r="F60" t="n">
-        <v>1.61572863268785</v>
+        <v>4.038906218191841</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.301585765862101</v>
+        <v>-4.163742388939519</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.093710716040956</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.59862823651194</v>
+        <v>-18.42911151953983</v>
       </c>
       <c r="F61" t="n">
-        <v>1.64999079281119</v>
+        <v>3.963307505008736</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.486272889266681</v>
+        <v>-4.209958170852466</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.356920097762569</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.52910655886441</v>
+        <v>-18.32734195259813</v>
       </c>
       <c r="F62" t="n">
-        <v>1.454621189402402</v>
+        <v>3.792387824941389</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.74940412785091</v>
+        <v>-4.420097464006204</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.59268857722816</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.686178217919</v>
+        <v>-17.56350307573881</v>
       </c>
       <c r="F63" t="n">
-        <v>1.506053541642347</v>
+        <v>3.900239316425533</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.633632445242364</v>
+        <v>-4.266905322838291</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.786136008858406</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.54572682864627</v>
+        <v>-17.57797453606488</v>
       </c>
       <c r="F64" t="n">
-        <v>1.107139915343289</v>
+        <v>3.55881063286766</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.587622001617827</v>
+        <v>-4.411712817229445</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.934508721639856</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.19500414303439</v>
+        <v>-17.29121472729285</v>
       </c>
       <c r="F65" t="n">
-        <v>1.448280147496013</v>
+        <v>3.811410950660555</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.688110648760397</v>
+        <v>-4.369271348617756</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.028999520266465</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.06200360022684</v>
+        <v>-17.07888027005586</v>
       </c>
       <c r="F66" t="n">
-        <v>1.499111151891328</v>
+        <v>3.850298111279997</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.870187042498044</v>
+        <v>-4.453455157859165</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.071498165388364</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.627962459589</v>
+        <v>-16.77958504767706</v>
       </c>
       <c r="F67" t="n">
-        <v>1.023376560692435</v>
+        <v>3.453305864679636</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.988012107990694</v>
+        <v>-4.49590151547772</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.063618325956205</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.44519671588312</v>
+        <v>-16.55403071587194</v>
       </c>
       <c r="F68" t="n">
-        <v>1.018629335024661</v>
+        <v>3.464452800336202</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.935098386670074</v>
+        <v>-4.599460458932713</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.011813903892282</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.38286676733682</v>
+        <v>-16.5432797897716</v>
       </c>
       <c r="F69" t="n">
-        <v>1.129629346931098</v>
+        <v>3.538203468923614</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.928376002228065</v>
+        <v>-4.427000741702288</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.92815167246928</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.20132327534766</v>
+        <v>-16.22554812249766</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8525888838104954</v>
+        <v>3.314487403700453</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.711807665044334</v>
+        <v>-4.255269486495034</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.820582002964978</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.12093333543498</v>
+        <v>-16.3142933751459</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9172900006872479</v>
+        <v>3.318525723372525</v>
       </c>
       <c r="G71" t="n">
-        <v>-1.697174867491658</v>
+        <v>-4.139869368408373</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.706320469776204</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.14139871817989</v>
+        <v>-16.35485746512069</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6934272652580793</v>
+        <v>3.231012500454747</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.635724940181404</v>
+        <v>-4.003578523979385</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.591489992130201</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.00579233471227</v>
+        <v>-16.13002181732501</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5591458026513932</v>
+        <v>3.04025323052146</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.412365772459527</v>
+        <v>-3.98582165103875</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.491564093135133</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.37705373817206</v>
+        <v>-16.31811657851583</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4428852193561558</v>
+        <v>2.957941910910079</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.8820845316464643</v>
+        <v>-3.496050721124944</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.406696846087308</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.47761083141076</v>
+        <v>-16.43930039172605</v>
       </c>
       <c r="F75" t="n">
-        <v>0.326702860170789</v>
+        <v>2.933413763458767</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6565301998413431</v>
+        <v>-3.40038752376002</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.345205137964628</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.46574032273789</v>
+        <v>-16.45170380214741</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4652182027242233</v>
+        <v>2.885516163183601</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4340559423623784</v>
+        <v>-3.262991763779109</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.299196558690096</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.73333033558475</v>
+        <v>-16.6294436467941</v>
       </c>
       <c r="F77" t="n">
-        <v>0.255484697140439</v>
+        <v>2.767808433855757</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.06000780498844956</v>
+        <v>-2.905668918896896</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.268810481813393</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.2372060503096</v>
+        <v>-16.98343707799995</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07863465174352453</v>
+        <v>2.616865235846625</v>
       </c>
       <c r="G78" t="n">
-        <v>0.293995404231128</v>
+        <v>-2.598595286592835</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.241550954982731</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.7608773538386</v>
+        <v>-17.3041070384009</v>
       </c>
       <c r="F79" t="n">
-        <v>0.06643169060370482</v>
+        <v>2.670986541863373</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6515235874017512</v>
+        <v>-2.282829000079399</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.213995905934024</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.09220046020256</v>
+        <v>-17.57260151751814</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.06135717088371809</v>
+        <v>2.488773255933453</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9153343979404819</v>
+        <v>-2.055563515870858</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.177577036774047</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.96102587052201</v>
+        <v>-18.35696444520477</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2316315020446319</v>
+        <v>2.400883579486923</v>
       </c>
       <c r="G81" t="n">
-        <v>1.373600567603888</v>
+        <v>-1.714129943306119</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.130147872067532</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.5804092614846</v>
+        <v>-18.96637426215885</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4551617850068502</v>
+        <v>2.17896177978392</v>
       </c>
       <c r="G82" t="n">
-        <v>1.527115383225017</v>
+        <v>-1.481398549420366</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.072414579049054</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.3871198395599</v>
+        <v>-19.63443749449531</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4966058962176882</v>
+        <v>1.988686521530457</v>
       </c>
       <c r="G83" t="n">
-        <v>1.942108953109358</v>
+        <v>-1.205565670995892</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.004593817455778</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.45880970081512</v>
+        <v>-20.71633071308178</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6092241693970741</v>
+        <v>1.840295385105855</v>
       </c>
       <c r="G84" t="n">
-        <v>2.349817902761997</v>
+        <v>-0.7628367651555418</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.934515537294251</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.17816350419239</v>
+        <v>-21.39606400480957</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5924499868366889</v>
+        <v>1.972112788251616</v>
       </c>
       <c r="G85" t="n">
-        <v>2.433801262721862</v>
+        <v>-0.6607445237606239</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.86187979869564</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.354610115585</v>
+        <v>-22.27005709538736</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9184636317431784</v>
+        <v>1.686893016642664</v>
       </c>
       <c r="G86" t="n">
-        <v>2.997430419374151</v>
+        <v>-0.2434824546900337</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.796583330860709</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.14570520572737</v>
+        <v>-23.02667979811111</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8719105083564143</v>
+        <v>1.630459210377865</v>
       </c>
       <c r="G87" t="n">
-        <v>3.150270552047647</v>
+        <v>-0.09690513981305668</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.737012916041272</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.05779832681903</v>
+        <v>-24.11230821794391</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.024990202366388</v>
+        <v>1.456498568039297</v>
       </c>
       <c r="G88" t="n">
-        <v>3.513479761197625</v>
+        <v>0.1717555655376536</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.6920642422928</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.34208176267518</v>
+        <v>-25.30503522220335</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.391577715261405</v>
+        <v>1.023317892610032</v>
       </c>
       <c r="G89" t="n">
-        <v>3.498172280697315</v>
+        <v>0.2454524550495295</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.65757893481882</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.87469252432255</v>
+        <v>-26.71802420833447</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.628552767107639</v>
+        <v>0.8918867210067577</v>
       </c>
       <c r="G90" t="n">
-        <v>3.355007492613444</v>
+        <v>0.1720684619771361</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.640191701966152</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.32081675449419</v>
+        <v>-28.32516054615765</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.842060585992682</v>
+        <v>0.5624801053346293</v>
       </c>
       <c r="G91" t="n">
-        <v>3.058836345622603</v>
+        <v>-0.106199141867062</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.634188698424541</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.80784974962474</v>
+        <v>-29.84248582783561</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.993306902427563</v>
+        <v>0.3115029378215504</v>
       </c>
       <c r="G92" t="n">
-        <v>2.889021581107179</v>
+        <v>-0.1095138885228303</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.645575999902112</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.52424561290973</v>
+        <v>-31.53194081878047</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.341203742070364</v>
+        <v>-0.0637478952416395</v>
       </c>
       <c r="G93" t="n">
-        <v>2.683345951222935</v>
+        <v>-0.3699610623371234</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.670078880952015</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.44758580336094</v>
+        <v>-33.45728794655055</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.597260587718167</v>
+        <v>-0.405685035513671</v>
       </c>
       <c r="G94" t="n">
-        <v>2.466406049517317</v>
+        <v>-0.3986253095978458</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.713409211493342</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.58035638097019</v>
+        <v>-35.56835622267756</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.982328546570122</v>
+        <v>-0.9258949221808891</v>
       </c>
       <c r="G95" t="n">
-        <v>2.153064710409871</v>
+        <v>-0.6685913797820223</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.777843975754457</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.5065688629557</v>
+        <v>-37.42061269778726</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.056299220466546</v>
+        <v>-1.157790295892399</v>
       </c>
       <c r="G96" t="n">
-        <v>1.543464222187981</v>
+        <v>-1.095626573579575</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.863410325051381</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.40979812365985</v>
+        <v>-39.26744481977811</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.375644260006563</v>
+        <v>-1.589020257581765</v>
       </c>
       <c r="G97" t="n">
-        <v>1.069206111062896</v>
+        <v>-1.483266150043528</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.979867882218483</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.65288425221417</v>
+        <v>-41.36736860475199</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.627540560810622</v>
+        <v>-1.889293281333947</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5821779140014296</v>
+        <v>-1.774225615714237</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.116972400896636</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.77332475450505</v>
+        <v>-43.60034426710552</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.56626174874071</v>
+        <v>-2.024259204902001</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2023265254764727</v>
+        <v>-2.115810747491851</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.296321607289983</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.26114967781026</v>
+        <v>-46.09795942666172</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.048356937873459</v>
+        <v>-2.628726235913632</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2365009528840792</v>
+        <v>-2.465022729981852</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.489645738313774</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.32840878565456</v>
+        <v>-48.12003799979715</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.948210521211573</v>
+        <v>-2.577186325522614</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.8178380924083349</v>
+        <v>-2.944893420990154</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.744943163245884</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.67404305549413</v>
+        <v>-50.42503851131407</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.098391034149467</v>
+        <v>-2.976774634769307</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.313622500768446</v>
+        <v>-3.417508825807956</v>
       </c>
     </row>
   </sheetData>
